--- a/data/gebieden/Kerncijfers22GebiedenEnStadsdelen1Januari2015.xlsx
+++ b/data/gebieden/Kerncijfers22GebiedenEnStadsdelen1Januari2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="2015_stadsdelen_0.1" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -382,6 +382,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -412,8 +424,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -471,7 +487,11 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -774,10 +794,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K5" sqref="K5:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -787,7 +807,7 @@
     <col min="5" max="16384" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -795,12 +815,12 @@
       <c r="C1" s="7"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="7"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -826,10 +846,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -854,8 +874,11 @@
       <c r="H5" s="9">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K5" s="5">
+        <v>15938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
@@ -880,8 +903,11 @@
       <c r="H6" s="9">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K6" s="5">
+        <v>12064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>74</v>
       </c>
@@ -906,8 +932,9 @@
       <c r="H7" s="17" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -932,8 +959,11 @@
       <c r="H8" s="9">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K8" s="5">
+        <v>12134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
@@ -958,8 +988,11 @@
       <c r="H9" s="9">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K9" s="5">
+        <v>10423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -984,8 +1017,11 @@
       <c r="H10" s="9">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K10" s="5">
+        <v>23316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>78</v>
       </c>
@@ -1010,8 +1046,9 @@
       <c r="H11" s="17">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
@@ -1036,8 +1073,11 @@
       <c r="H12" s="9">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K12" s="5">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
@@ -1062,8 +1102,11 @@
       <c r="H13" s="9">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K13" s="5">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
@@ -1088,8 +1131,11 @@
       <c r="H14" s="9">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K14" s="5">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>82</v>
       </c>
@@ -1114,8 +1160,11 @@
       <c r="H15" s="9">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K15" s="5">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>83</v>
       </c>
@@ -1140,8 +1189,9 @@
       <c r="H16" s="17" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
@@ -1166,8 +1216,11 @@
       <c r="H17" s="9">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K17" s="5">
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
@@ -1192,8 +1245,11 @@
       <c r="H18" s="9">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K18" s="5">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
@@ -1218,8 +1274,11 @@
       <c r="H19" s="9">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K19" s="5">
+        <v>17439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>87</v>
       </c>
@@ -1244,8 +1303,9 @@
       <c r="H20" s="17">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>88</v>
       </c>
@@ -1270,8 +1330,11 @@
       <c r="H21" s="9">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K21" s="5">
+        <v>16511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>89</v>
       </c>
@@ -1296,8 +1359,11 @@
       <c r="H22" s="9">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K22" s="5">
+        <v>14235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
@@ -1322,8 +1388,11 @@
       <c r="H23" s="9">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K23" s="5">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
@@ -1348,8 +1417,11 @@
       <c r="H24" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K24" s="5">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>92</v>
       </c>
@@ -1374,8 +1446,9 @@
       <c r="H25" s="17">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>93</v>
       </c>
@@ -1400,8 +1473,11 @@
       <c r="H26" s="9">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K26" s="5">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>94</v>
       </c>
@@ -1426,8 +1502,11 @@
       <c r="H27" s="9">
         <v>2.0099999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K27" s="5">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -1452,8 +1531,11 @@
       <c r="H28" s="9">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K28" s="5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>96</v>
       </c>
@@ -1478,8 +1560,9 @@
       <c r="H29" s="17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>97</v>
       </c>
@@ -1504,8 +1587,11 @@
       <c r="H30" s="9">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K30" s="5">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
@@ -1530,8 +1616,11 @@
       <c r="H31" s="9">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K31" s="5">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>99</v>
       </c>
@@ -1556,8 +1645,11 @@
       <c r="H32" s="9">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K32" s="5">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>100</v>
       </c>
@@ -1582,8 +1674,9 @@
       <c r="H33" s="17">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>101</v>
       </c>
@@ -1608,8 +1701,11 @@
       <c r="H34" s="17">
         <v>4.21</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K34" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>102</v>
       </c>
@@ -1634,8 +1730,9 @@
       <c r="H35" s="13">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+      <c r="K35" s="12"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1">
       <c r="H37" s="4" t="s">
         <v>33</v>
       </c>
